--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.23460758368763</v>
+        <v>81.97832464682843</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.78389157619628</v>
+        <v>112.1663604101802</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.78767455561427</v>
+        <v>101.461360399137</v>
       </c>
       <c r="AD2" t="n">
-        <v>61234.60758368763</v>
+        <v>81978.32464682842</v>
       </c>
       <c r="AE2" t="n">
-        <v>83783.89157619629</v>
+        <v>112166.3604101802</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.589267332727278e-06</v>
+        <v>7.758384127986266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>75787.67455561427</v>
+        <v>101461.360399137</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.1672013118357</v>
+        <v>79.26308565353513</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.95517510752229</v>
+        <v>108.451250631668</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.22892681658114</v>
+        <v>98.10081548369548</v>
       </c>
       <c r="AD2" t="n">
-        <v>59167.20131183571</v>
+        <v>79263.08565353513</v>
       </c>
       <c r="AE2" t="n">
-        <v>80955.1751075223</v>
+        <v>108451.250631668</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.817774911477418e-06</v>
+        <v>8.343379267774253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73228.92681658114</v>
+        <v>98100.81548369548</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.49411572061999</v>
+        <v>81.75487170419409</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.56125323963805</v>
+        <v>111.86062223602</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.44523187784</v>
+        <v>101.1848014472123</v>
       </c>
       <c r="AD2" t="n">
-        <v>54494.11572061999</v>
+        <v>81754.87170419408</v>
       </c>
       <c r="AE2" t="n">
-        <v>74561.25323963806</v>
+        <v>111860.62223602</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.97476669472384e-06</v>
+        <v>9.413329105067349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.704861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>67445.23187784001</v>
+        <v>101184.8014472123</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.03786350583663</v>
+        <v>74.9458737177607</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.67347706471605</v>
+        <v>102.5442507991959</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.355868025578</v>
+        <v>92.75757142470637</v>
       </c>
       <c r="AD2" t="n">
-        <v>56037.86350583663</v>
+        <v>74945.87371776071</v>
       </c>
       <c r="AE2" t="n">
-        <v>76673.47706471605</v>
+        <v>102544.2507991959</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.035009008265792e-06</v>
+        <v>9.172692936086233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>69355.86802557801</v>
+        <v>92757.57142470637</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.74729570321564</v>
+        <v>80.35268514590109</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.85361819642338</v>
+        <v>109.9420887268594</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.65986937208713</v>
+        <v>99.44937008348667</v>
       </c>
       <c r="AD2" t="n">
-        <v>62747.29570321564</v>
+        <v>80352.68514590109</v>
       </c>
       <c r="AE2" t="n">
-        <v>85853.61819642338</v>
+        <v>109942.0887268594</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.704425642363404e-06</v>
+        <v>9.219158490890186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.164930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>77659.86937208712</v>
+        <v>99449.37008348668</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.59575816247992</v>
+        <v>79.86191979649124</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.54154549716731</v>
+        <v>109.270601924758</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.7593348392146</v>
+        <v>98.84196903933999</v>
       </c>
       <c r="AD2" t="n">
-        <v>59595.75816247993</v>
+        <v>79861.91979649123</v>
       </c>
       <c r="AE2" t="n">
-        <v>81541.5454971673</v>
+        <v>109270.601924758</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789381370147957e-06</v>
+        <v>8.240040641881092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>73759.3348392146</v>
+        <v>98841.96903933998</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.53393084073848</v>
+        <v>88.38635728950196</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.56168297858889</v>
+        <v>120.9341133743298</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.39579604170899</v>
+        <v>109.3923313260095</v>
       </c>
       <c r="AD2" t="n">
-        <v>62533.93084073848</v>
+        <v>88386.35728950196</v>
       </c>
       <c r="AE2" t="n">
-        <v>85561.68297858888</v>
+        <v>120934.1133743298</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.442274747879672e-06</v>
+        <v>8.905252169072369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77395.79604170899</v>
+        <v>109392.3313260095</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.62700766119917</v>
+        <v>77.17025980380822</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.84781420617414</v>
+        <v>105.5877539751128</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.32268948195737</v>
+        <v>95.51060692909826</v>
       </c>
       <c r="AD2" t="n">
-        <v>57627.00766119917</v>
+        <v>77170.25980380822</v>
       </c>
       <c r="AE2" t="n">
-        <v>78847.81420617414</v>
+        <v>105587.7539751128</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.949545764723797e-06</v>
+        <v>8.766013334727396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>71322.68948195736</v>
+        <v>95510.60692909826</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.50244915558198</v>
+        <v>78.4215811972124</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.04563188054104</v>
+        <v>107.2998671099713</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.40618911863072</v>
+        <v>97.05931838933226</v>
       </c>
       <c r="AD2" t="n">
-        <v>58502.44915558198</v>
+        <v>78421.58119721241</v>
       </c>
       <c r="AE2" t="n">
-        <v>80045.63188054104</v>
+        <v>107299.8671099713</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906242529096932e-06</v>
+        <v>8.556058561551022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.314236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>72406.18911863072</v>
+        <v>97059.31838933226</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.74051543360655</v>
+        <v>81.3301147352844</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.10785289864843</v>
+        <v>111.2794510122031</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.17615606062512</v>
+        <v>100.6590963893174</v>
       </c>
       <c r="AD2" t="n">
-        <v>60740.51543360655</v>
+        <v>81330.1147352844</v>
       </c>
       <c r="AE2" t="n">
-        <v>83107.85289864843</v>
+        <v>111279.4510122031</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.648282268498025e-06</v>
+        <v>7.901771785130414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>75176.15606062512</v>
+        <v>100659.0963893174</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.48500441672189</v>
+        <v>75.61604579300904</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.28527498545373</v>
+        <v>103.4612097984555</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.90927681142443</v>
+        <v>93.58701714403695</v>
       </c>
       <c r="AD2" t="n">
-        <v>56485.00441672189</v>
+        <v>75616.04579300903</v>
       </c>
       <c r="AE2" t="n">
-        <v>77285.27498545373</v>
+        <v>103461.2097984555</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04201726729016e-06</v>
+        <v>9.09195027560021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>69909.27681142444</v>
+        <v>93587.01714403694</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.99717526784308</v>
+        <v>73.58595712136695</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.24956150556923</v>
+        <v>100.6835529167249</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.06784896891766</v>
+        <v>91.07445593663191</v>
       </c>
       <c r="AD2" t="n">
-        <v>54997.17526784308</v>
+        <v>73585.95712136694</v>
       </c>
       <c r="AE2" t="n">
-        <v>75249.56150556923</v>
+        <v>100683.5529167249</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.016132211536435e-06</v>
+        <v>9.358499336493275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.592013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>68067.84896891766</v>
+        <v>91074.4559366319</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.21837016744389</v>
+        <v>81.03349725234999</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.18396600874746</v>
+        <v>110.8736058862126</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.10395241073954</v>
+        <v>100.2919845525441</v>
       </c>
       <c r="AD2" t="n">
-        <v>54218.37016744389</v>
+        <v>81033.49725234999</v>
       </c>
       <c r="AE2" t="n">
-        <v>74183.96600874746</v>
+        <v>110873.6058862126</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.846629508593458e-06</v>
+        <v>9.320248275532857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.913194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>67103.95241073954</v>
+        <v>100291.9845525441</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.51675366235573</v>
+        <v>96.6377025666427</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.85237745729329</v>
+        <v>132.2239680061702</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.51348388946778</v>
+        <v>119.6046980772012</v>
       </c>
       <c r="AD2" t="n">
-        <v>71516.75366235572</v>
+        <v>96637.70256664271</v>
       </c>
       <c r="AE2" t="n">
-        <v>97852.37745729329</v>
+        <v>132223.9680061702</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.971909872640893e-06</v>
+        <v>8.192458607823084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88513.48388946778</v>
+        <v>119604.6980772012</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.01156316220241</v>
+        <v>77.74676375655635</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.37398000803788</v>
+        <v>106.3765521168218</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.79863875816973</v>
+        <v>96.22412328324791</v>
       </c>
       <c r="AD2" t="n">
-        <v>58011.56316220242</v>
+        <v>77746.76375655635</v>
       </c>
       <c r="AE2" t="n">
-        <v>79373.98000803788</v>
+        <v>106376.5521168218</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.94773671817909e-06</v>
+        <v>8.692978236632243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71798.63875816973</v>
+        <v>96224.1232832479</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.1856308975023</v>
+        <v>80.61619309631256</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.34863539657296</v>
+        <v>110.3026319297625</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.48939721137904</v>
+        <v>99.77550354913041</v>
       </c>
       <c r="AD2" t="n">
-        <v>60185.6308975023</v>
+        <v>80616.19309631256</v>
       </c>
       <c r="AE2" t="n">
-        <v>82348.63539657296</v>
+        <v>110302.6319297625</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.71515342659598e-06</v>
+        <v>8.062386891486013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>74489.39721137904</v>
+        <v>99775.5035491304</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.660097868153</v>
+        <v>122.126560389121</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.6769014275076</v>
+        <v>167.0989477679122</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.968790133411</v>
+        <v>151.1512587178351</v>
       </c>
       <c r="AD2" t="n">
-        <v>89660.097868153</v>
+        <v>122126.560389121</v>
       </c>
       <c r="AE2" t="n">
-        <v>122676.9014275076</v>
+        <v>167098.9477679122</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.201885696007686e-06</v>
+        <v>6.863115804554607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>110968.790133411</v>
+        <v>151151.2587178351</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.41712996336025</v>
+        <v>74.0883665674982</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.82416204706914</v>
+        <v>101.3709716856618</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.58761044119392</v>
+        <v>91.69626842306</v>
       </c>
       <c r="AD2" t="n">
-        <v>55417.12996336025</v>
+        <v>74088.3665674982</v>
       </c>
       <c r="AE2" t="n">
-        <v>75824.16204706914</v>
+        <v>101370.9716856618</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.061926293055319e-06</v>
+        <v>9.32625769262364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68587.61044119392</v>
+        <v>91696.26842306</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.05066507431266</v>
+        <v>76.39294221009658</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.05923685235598</v>
+        <v>104.5241937505651</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.60937284401209</v>
+        <v>94.54855139966486</v>
       </c>
       <c r="AD2" t="n">
-        <v>57050.66507431266</v>
+        <v>76392.94221009657</v>
       </c>
       <c r="AE2" t="n">
-        <v>78059.23685235599</v>
+        <v>104524.1937505651</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.003327890433827e-06</v>
+        <v>8.938080141993437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>70609.37284401209</v>
+        <v>94548.55139966487</v>
       </c>
     </row>
   </sheetData>
